--- a/Newlabdata/Newlabdata.xlsx
+++ b/Newlabdata/Newlabdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prach\Desktop\Automation Project\Newlabdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prach\Desktop\Automation Project\Automation1.1-labs\Newlabdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F0FD36-7C38-4B24-842E-208681E78F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AF7747-9CE7-4782-80BD-71C3173F615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E664C47-9614-445C-B640-CA36507A58C1}"/>
   </bookViews>
@@ -748,7 +748,7 @@
   <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:G271"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
